--- a/meta/static/data/SampleData.xlsx
+++ b/meta/static/data/SampleData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jessica/Google Drive/IP-517bb_PACS/Analyse/Beispiele/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jessica/Git/IP-517bb_PACS/meta/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -191,7 +191,7 @@
     <t>Bram L. Munich</t>
   </si>
   <si>
-    <t>Bram^L.^Munich</t>
+    <t>Bram L.Munich</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
